--- a/genshin/517880293198444548_2021-04-26_14-00-02.xlsx
+++ b/genshin/517880293198444548_2021-04-26_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4473931211</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-28 23:34:46</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44314.98247685185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4482002251</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-28 21:29:21</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44314.89538194444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -677,10 +689,8 @@
           <t>4473931211</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-28 20:14:24</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44314.84333333333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>4470768054</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-28 16:03:35</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44314.66915509259</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>4479585492</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-28 11:49:24</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44314.49263888889</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-28 09:57:01</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44314.41459490741</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -969,10 +973,8 @@
           <t>4479101798</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-28 09:21:36</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44314.39</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1036,10 +1038,8 @@
           <t>4478918238</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-28 08:13:11</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44314.34248842593</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1107,10 +1107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-28 08:13:01</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44314.34237268518</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1178,10 +1176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-28 05:22:41</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44314.22408564815</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1241,10 +1237,8 @@
           <t>4478420670</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-28 01:14:00</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44314.05138888889</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1316,10 +1310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-27 21:55:28</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44313.91351851852</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1387,10 +1379,8 @@
           <t>4476998776</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-27 20:35:11</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44313.85776620371</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1454,10 +1444,8 @@
           <t>4476995852</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-27 20:33:25</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44313.85653935185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1521,10 +1509,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-27 19:58:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44313.83230324074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1588,10 +1574,8 @@
           <t>4476774339</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-27 19:48:47</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44313.82554398148</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1662,10 +1646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-27 19:17:34</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44313.80386574074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1741,10 +1723,8 @@
           <t>4476620816</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-27 19:16:52</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44313.80337962963</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1827,10 +1807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-27 19:16:23</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44313.80304398148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1906,10 +1884,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-27 16:29:53</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44313.68741898148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1985,10 +1961,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-27 16:21:17</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44313.68144675926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2056,10 +2030,8 @@
           <t>4475840427</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-27 16:19:05</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44313.67991898148</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2131,10 +2103,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-27 16:17:21</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44313.67871527778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2210,10 +2180,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-27 16:13:30</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44313.67604166667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2281,10 +2249,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-27 16:11:31</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44313.67466435185</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2352,10 +2318,8 @@
           <t>4470583829</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-27 15:28:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44313.64466435185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2427,10 +2391,8 @@
           <t>4475659655</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-27 15:26:03</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44313.64309027778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2502,10 +2464,8 @@
           <t>4475655664</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-27 15:22:05</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44313.64033564815</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2577,10 +2537,8 @@
           <t>4475112371</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-27 12:45:55</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44313.53188657408</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2644,10 +2602,8 @@
           <t>4475069357</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-27 12:37:48</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44313.52625</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2723,10 +2679,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-27 12:35:06</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44313.524375</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2802,10 +2756,8 @@
           <t>4475032211</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-27 12:30:31</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44313.52119212963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2877,10 +2829,8 @@
           <t>4475013139</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-27 12:27:45</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44313.51927083333</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2952,10 +2902,8 @@
           <t>4474827107</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-27 11:44:52</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44313.48949074074</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3023,10 +2971,8 @@
           <t>4474794875</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-27 11:38:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44313.48503472222</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3094,10 +3040,8 @@
           <t>4470654727</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-27 11:37:26</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44313.4843287037</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3165,10 +3109,8 @@
           <t>4474783900</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-27 11:34:11</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44313.48207175926</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3241,10 +3183,8 @@
           <t>4472815386</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-27 11:24:55</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44313.47563657408</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3320,10 +3260,8 @@
           <t>4474511924</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-27 10:34:00</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44313.44027777778</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3395,10 +3333,8 @@
           <t>4474511924</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-27 10:30:41</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44313.43797453704</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3466,10 +3402,8 @@
           <t>4474549919</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-27 10:26:43</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44313.43521990741</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3533,10 +3467,8 @@
           <t>4474516930</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-27 10:18:12</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44313.42930555555</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3612,10 +3544,8 @@
           <t>4474526275</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-27 10:17:24</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44313.42875</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3683,10 +3613,8 @@
           <t>4474516930</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-27 10:14:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44313.42704861111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3761,10 +3689,8 @@
           <t>4474511924</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-27 10:13:28</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44313.42601851852</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
@@ -3836,10 +3762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-27 09:51:43</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44313.41091435185</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3911,10 +3835,8 @@
           <t>4474393546</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-27 09:37:00</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44313.40069444444</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3986,10 +3908,8 @@
           <t>4470692955</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-27 09:00:10</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44313.37511574074</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4053,10 +3973,8 @@
           <t>4474214119</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-27 08:32:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44313.3559837963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4132,10 +4050,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-27 08:23:55</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44313.34994212963</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4195,10 +4111,8 @@
           <t>4474156964</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-27 08:08:04</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44313.33893518519</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4262,10 +4176,8 @@
           <t>4470900622</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-27 08:07:39</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44313.33864583333</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4325,10 +4237,8 @@
           <t>4474004412</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-27 06:34:37</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44313.27403935185</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4405,10 +4315,8 @@
           <t>4470707750</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-27 05:54:39</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44313.24628472222</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4484,10 +4392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-27 04:19:59</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44313.18054398148</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4551,10 +4457,8 @@
           <t>4473931211</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-27 04:18:33</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44313.17954861111</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4618,10 +4522,8 @@
           <t>4473930927</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-27 04:17:07</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44313.17855324074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4689,10 +4591,8 @@
           <t>4473700154</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-27 04:13:17</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44313.1758912037</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4756,10 +4656,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-27 02:02:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44313.08479166667</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4831,10 +4729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-27 01:55:46</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44313.08039351852</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4906,10 +4802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-27 01:54:59</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44313.07984953704</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4986,10 +4880,8 @@
           <t>4473700154</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-27 01:22:21</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44313.0571875</v>
       </c>
       <c r="I63" t="n">
         <v>7</v>
@@ -5057,10 +4949,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-27 01:21:56</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44313.05689814815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5128,10 +5018,8 @@
           <t>4473600632</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-27 00:48:24</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44313.03361111111</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5199,10 +5087,8 @@
           <t>4473567499</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-27 00:41:01</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44313.0284837963</v>
       </c>
       <c r="I66" t="n">
         <v>16</v>
@@ -5266,10 +5152,8 @@
           <t>4473365534</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-27 00:21:05</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44313.01464120371</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5337,10 +5221,8 @@
           <t>4470667587</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-27 00:10:12</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44313.00708333333</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5408,10 +5290,8 @@
           <t>4473424524</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-27 00:07:31</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44313.00521990741</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5479,10 +5359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-27 00:03:21</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44313.00232638889</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5550,10 +5428,8 @@
           <t>4470667587</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:59:36</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44312.99972222222</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5629,10 +5505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:59:19</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44312.99952546296</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5700,10 +5574,8 @@
           <t>4470667587</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:59:01</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44312.99931712963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5779,10 +5651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:55:45</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44312.99704861111</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5854,10 +5724,8 @@
           <t>4473365534</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:54:04</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44312.99587962963</v>
       </c>
       <c r="I75" t="n">
         <v>10</v>
@@ -5925,10 +5793,8 @@
           <t>4470654727</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:52:11</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44312.99457175926</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5988,10 +5854,8 @@
           <t>4470667587</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:50:18</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44312.99326388889</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6059,10 +5923,8 @@
           <t>4473280850</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:38:32</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44312.98509259259</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6126,10 +5988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:31:44</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44312.98037037037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6197,10 +6057,8 @@
           <t>4473213910</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:29:22</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44312.97872685185</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6268,10 +6126,8 @@
           <t>4473209998</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:27:51</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44312.97767361111</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6339,10 +6195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:20:41</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44312.97269675926</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6402,10 +6256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:18:16</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44312.97101851852</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6465,10 +6317,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:05:18</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44312.96201388889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6536,10 +6386,8 @@
           <t>4472804062</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:03:29</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44312.96075231482</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6611,10 +6459,8 @@
           <t>4472804062</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:01:11</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44312.95915509259</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6679,10 +6525,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-04-26 23:00:46</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44312.95886574074</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6754,10 +6598,8 @@
           <t>4473041246</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:58:59</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44312.95762731481</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6833,10 +6675,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:58:57</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44312.95760416667</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6904,10 +6744,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:54:14</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44312.9543287037</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6978,10 +6816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:34:07</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44312.9403587963</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7055,10 +6891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:22:12</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44312.93208333333</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7130,10 +6964,8 @@
           <t>4472815386</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:21:43</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44312.93174768519</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7201,10 +7033,8 @@
           <t>4472804062</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:21:01</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44312.93126157407</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -7276,10 +7106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:18:54</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44312.92979166667</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7355,10 +7183,8 @@
           <t>4471176755</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:16:35</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44312.92818287037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7430,10 +7256,8 @@
           <t>4472750043</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:09:27</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44312.92322916666</v>
       </c>
       <c r="I97" t="n">
         <v>17</v>
@@ -7497,10 +7321,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:09:14</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44312.9230787037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7568,10 +7390,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:08:30</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44312.92256944445</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7639,10 +7459,8 @@
           <t>4471245163</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:08:18</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44312.92243055555</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7710,10 +7528,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:07:37</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44312.92195601852</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7781,10 +7597,8 @@
           <t>4472711598</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-04-26 22:03:29</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44312.91908564815</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7860,10 +7674,8 @@
           <t>4472646118</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-04-26 21:51:54</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44312.91104166667</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7927,10 +7739,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-04-26 21:48:43</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44312.90883101852</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8002,10 +7812,8 @@
           <t>4472560635</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-04-26 21:35:22</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44312.89956018519</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8069,10 +7877,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-04-26 21:33:32</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44312.89828703704</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8136,10 +7942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-04-26 21:20:15</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44312.8890625</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8203,10 +8007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-04-26 21:16:34</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44312.88650462963</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8274,10 +8076,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-04-26 21:10:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44312.88222222222</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8341,10 +8141,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-04-26 20:51:26</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44312.86905092592</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8414,10 +8212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-04-26 20:43:16</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44312.86337962963</v>
       </c>
       <c r="I111" t="n">
         <v>4</v>
@@ -8489,10 +8285,8 @@
           <t>4472193446</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-04-26 20:27:48</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44312.85263888889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8560,10 +8354,8 @@
           <t>4471123006</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-04-26 20:27:37</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44312.85251157408</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8635,10 +8427,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-04-26 20:27:21</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44312.85232638889</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8706,10 +8496,8 @@
           <t>4472053044</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-04-26 20:00:49</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44312.83390046296</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8777,10 +8565,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:51:21</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44312.82732638889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8844,10 +8630,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:49:50</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44312.82627314814</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8923,10 +8707,8 @@
           <t>4471969601</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:46:08</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44312.8237037037</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9002,10 +8784,8 @@
           <t>4471914914</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:43:50</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44312.82210648148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9069,10 +8849,8 @@
           <t>4471958185</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:42:41</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44312.82130787037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9136,10 +8914,8 @@
           <t>4471953135</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:42:33</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44312.82121527778</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9211,10 +8987,8 @@
           <t>4470600379</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:39:56</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44312.81939814815</v>
       </c>
       <c r="I122" t="n">
         <v>4</v>
@@ -9291,10 +9065,8 @@
           <t>4471914914</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:39:04</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44312.8187962963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9358,10 +9130,8 @@
           <t>4470692955</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:38:14</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44312.81821759259</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9425,10 +9195,8 @@
           <t>4471914914</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:35:11</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44312.81609953703</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9492,10 +9260,8 @@
           <t>4471907199</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:33:30</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44312.81493055556</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9567,10 +9333,8 @@
           <t>4471505008</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:25:41</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44312.80950231481</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9640,10 +9404,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:23:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44312.80796296296</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9713,10 +9475,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:18:03</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44312.80420138889</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9788,10 +9548,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:14:26</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44312.80168981481</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9863,10 +9621,8 @@
           <t>4471803770</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:13:21</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44312.8009375</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9934,10 +9690,8 @@
           <t>4471799473</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:12:44</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44312.80050925926</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10009,10 +9763,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:11:16</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44312.79949074074</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10080,10 +9832,8 @@
           <t>4471792218</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:11:12</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44312.79944444444</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10151,10 +9901,8 @@
           <t>4471791606</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:10:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44312.79921296296</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10222,10 +9970,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:10:08</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44312.7987037037</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10293,10 +10039,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:10:06</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44312.79868055556</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10364,10 +10108,8 @@
           <t>4471161715</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:09:38</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44312.79835648148</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10431,10 +10173,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:09:10</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44312.79803240741</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10498,10 +10238,8 @@
           <t>4471774853</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:08:07</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44312.79730324074</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10565,10 +10303,8 @@
           <t>4471773627</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:07:25</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44312.79681712963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10640,10 +10376,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:06:37</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44312.79626157408</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10715,10 +10449,8 @@
           <t>4471754575</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:05:00</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44312.79513888889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10786,10 +10518,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:01:13</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44312.79251157407</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10857,10 +10587,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-04-26 19:00:26</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44312.7919675926</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10928,10 +10656,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:59:06</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44312.79104166666</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10991,10 +10717,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:58:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44312.79064814815</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11062,10 +10786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:57:58</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44312.79025462963</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11133,10 +10855,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:57:48</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44312.79013888889</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11183,9 +10903,10 @@
       <c r="D150" t="n">
         <v>1</v>
       </c>
-      <c r="E150">
-        <f>2抽=30废品</f>
-        <v/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>=2抽=30废品</t>
+        </is>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -11195,10 +10916,8 @@
           <t>4471726130</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:57:37</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44312.79001157408</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11275,10 +10994,8 @@
           <t>4471721023</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:57:13</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44312.78973379629</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11346,10 +11063,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:56:30</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44312.78923611111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11417,10 +11132,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:53:50</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44312.78738425926</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11488,10 +11201,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:51:49</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44312.7859837963</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11563,10 +11274,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:50:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44312.78474537037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11634,10 +11343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:49:07</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44312.7841087963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11707,10 +11414,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:43:19</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44312.78008101852</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11778,10 +11483,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:40:04</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44312.77782407407</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11850,10 +11553,8 @@
           <t>4471614519</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:39:03</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44312.77711805556</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11921,10 +11622,8 @@
           <t>4471613027</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:38:13</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44312.77653935185</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11992,10 +11691,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:37:46</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44312.77622685185</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12064,10 +11761,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:35:23</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44312.77457175926</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12131,10 +11826,8 @@
           <t>4471579530</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:32:12</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44312.77236111111</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12205,10 +11898,8 @@
           <t>4470854656</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:32:01</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44312.7722337963</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12277,10 +11968,8 @@
           <t>4471123006</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:29:53</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44312.77075231481</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12344,10 +12033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:25:14</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44312.76752314815</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12411,10 +12098,8 @@
           <t>4471423333</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:23:02</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44312.76599537037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12482,10 +12167,8 @@
           <t>4471444329</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:23:00</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44312.76597222222</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12562,10 +12245,8 @@
           <t>4471406920</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:20:20</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44312.76412037037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12637,10 +12318,8 @@
           <t>4471520996</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:19:35</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44312.76359953704</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12708,10 +12387,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:17:58</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44312.76247685185</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12787,10 +12464,8 @@
           <t>4471505008</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:16:07</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44312.76119212963</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12854,10 +12529,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:15:14</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44312.7605787037</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12927,10 +12600,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:14:17</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44312.75991898148</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12998,10 +12669,8 @@
           <t>4471406920</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:13:57</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44312.7596875</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13071,10 +12740,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:13:50</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44312.75960648148</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13150,10 +12817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:13:41</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44312.75950231482</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13225,10 +12890,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:13:31</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44312.75938657407</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13298,10 +12961,8 @@
           <t>4471481659</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:13:26</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44312.7593287037</v>
       </c>
       <c r="I179" t="n">
         <v>4</v>
@@ -13373,10 +13034,8 @@
           <t>4471444329</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:12:33</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44312.75871527778</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -13448,10 +13107,8 @@
           <t>4470654727</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:11:16</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44312.75782407408</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13523,10 +13180,8 @@
           <t>4471444329</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:06:36</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44312.75458333334</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13598,10 +13253,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:05:58</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44312.75414351852</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13665,10 +13318,8 @@
           <t>4471441057</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:04:43</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44312.75327546296</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13736,10 +13387,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:04:14</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44312.75293981482</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13815,10 +13464,8 @@
           <t>4471428694</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:03:23</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44312.75234953704</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13890,10 +13537,8 @@
           <t>4471428138</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:03:03</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44312.75211805556</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13965,10 +13610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:02:58</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44312.75206018519</v>
       </c>
       <c r="I188" t="n">
         <v>406</v>
@@ -14036,10 +13679,8 @@
           <t>4471295870</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:02:46</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44312.75192129629</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14111,10 +13752,8 @@
           <t>4471423333</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:02:43</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44312.75188657407</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14186,10 +13825,8 @@
           <t>4471427484</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:02:41</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44312.75186342592</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -14269,10 +13906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:02:11</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44312.7515162037</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14348,10 +13983,8 @@
           <t>4471413989</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-04-26 18:00:42</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44312.75048611111</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14423,10 +14056,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:59:45</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44312.74982638889</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14498,10 +14129,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:59:08</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44312.74939814815</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14569,10 +14198,8 @@
           <t>4471406920</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:59:02</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44312.74932870371</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14644,10 +14271,8 @@
           <t>4471403173</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:57:12</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44312.74805555555</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14719,10 +14344,8 @@
           <t>4471402829</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:56:59</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44312.74790509259</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14790,10 +14413,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:55:50</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44312.74710648148</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14865,10 +14486,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:55:43</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44312.74702546297</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14940,10 +14559,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:55:19</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44312.74674768518</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15011,10 +14628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:54:55</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44312.7464699074</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15086,10 +14701,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:54:23</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44312.74609953703</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15153,10 +14766,8 @@
           <t>4471378615</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:53:55</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44312.74577546296</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15232,10 +14843,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:53:26</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44312.74543981482</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15307,10 +14916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:53:20</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44312.74537037037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15374,10 +14981,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:52:56</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44312.7450925926</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15453,10 +15058,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:51:05</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44312.74380787037</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15524,10 +15127,8 @@
           <t>4471362007</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:49:48</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44312.74291666667</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -15603,10 +15204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:49:28</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44312.74268518519</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15674,10 +15273,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:48:13</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44312.74181712963</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15745,10 +15342,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:47:29</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44312.74130787037</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15816,10 +15411,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:47:06</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44312.74104166667</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15892,10 +15485,8 @@
           <t>4471350907</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:46:09</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44312.74038194444</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15959,10 +15550,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:45:41</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44312.74005787037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16030,10 +15619,8 @@
           <t>4471332597</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:43:48</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44312.73875</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16105,10 +15692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:42:04</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44312.7375462963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16172,10 +15757,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:41:23</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44312.73707175926</v>
       </c>
       <c r="I218" t="n">
         <v>6</v>
@@ -16251,10 +15834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:40:41</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44312.73658564815</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16326,10 +15907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:39:41</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44312.7358912037</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16389,10 +15968,8 @@
           <t>4471245163</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:38:52</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44312.73532407408</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16456,10 +16033,8 @@
           <t>4471068125</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:37:56</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44312.73467592592</v>
       </c>
       <c r="I222" t="n">
         <v>2</v>
@@ -16523,10 +16098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:37:47</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44312.73457175926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16598,10 +16171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:35:31</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44312.73299768518</v>
       </c>
       <c r="I224" t="n">
         <v>55</v>
@@ -16677,10 +16248,8 @@
           <t>4471288002</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:34:07</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44312.73202546296</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16740,10 +16309,8 @@
           <t>4471048437</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:33:12</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44312.73138888889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16807,10 +16374,8 @@
           <t>4471118554</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:33:03</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44312.73128472222</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16886,10 +16451,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:30:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44312.7294212963</v>
       </c>
       <c r="I228" t="n">
         <v>23</v>
@@ -16953,10 +16516,8 @@
           <t>4471280871</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:29:46</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44312.72900462963</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17032,10 +16593,8 @@
           <t>4471245163</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:28:30</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44312.728125</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17099,10 +16658,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:28:27</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44312.72809027778</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17174,10 +16731,8 @@
           <t>4471048437</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:28:22</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44312.72803240741</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17249,10 +16804,8 @@
           <t>4471262605</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:27:15</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44312.72725694445</v>
       </c>
       <c r="I233" t="n">
         <v>10</v>
@@ -17316,10 +16869,8 @@
           <t>4471267157</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:27:15</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44312.72725694445</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17383,10 +16934,8 @@
           <t>4471266749</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:26:59</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44312.72707175926</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17454,10 +17003,8 @@
           <t>4471265003</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:25:47</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44312.72623842592</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17529,10 +17076,8 @@
           <t>4471245163</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:25:30</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44312.72604166667</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17604,10 +17149,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:24:35</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44312.72540509259</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -17679,10 +17222,8 @@
           <t>4471245163</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:22:09</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44312.72371527777</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17754,10 +17295,8 @@
           <t>4471195705</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:18:27</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44312.72114583333</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17829,10 +17368,8 @@
           <t>4471048437</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:18:20</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44312.72106481482</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17896,10 +17433,8 @@
           <t>4471215574</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:15:19</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44312.71896990741</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -17975,10 +17510,8 @@
           <t>4471204125</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:14:15</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44312.71822916667</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18050,10 +17583,8 @@
           <t>4471068125</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:13:35</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44312.71776620371</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18121,10 +17652,8 @@
           <t>4471195705</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:11:11</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44312.71609953704</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18200,10 +17729,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:10:52</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44312.71587962963</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18279,10 +17806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:08:53</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44312.71450231481</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18350,10 +17875,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:04:53</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44312.71172453704</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18413,10 +17936,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:03:03</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44312.71045138889</v>
       </c>
       <c r="I249" t="n">
         <v>20</v>
@@ -18481,10 +18002,8 @@
           <t>4471158154</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:02:25</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44312.71001157408</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18556,10 +18075,8 @@
           <t>4471161715</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:01:39</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44312.70947916667</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18631,10 +18148,8 @@
           <t>4471161169</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:01:14</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44312.70918981481</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18706,10 +18221,8 @@
           <t>4471151221</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:00:21</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44312.70857638889</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18777,10 +18290,8 @@
           <t>4471150822</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-04-26 17:00:03</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44312.70836805556</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18852,10 +18363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:59:56</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44312.70828703704</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18927,10 +18436,8 @@
           <t>4470567811</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:59:37</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44312.70806712963</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19006,10 +18513,8 @@
           <t>4470793865</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:59:29</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44312.70797453704</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19073,10 +18578,8 @@
           <t>4471144072</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:59:24</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44312.70791666667</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19148,10 +18651,8 @@
           <t>4471139345</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:58:56</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44312.70759259259</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19219,10 +18720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:57:15</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44312.70642361111</v>
       </c>
       <c r="I260" t="n">
         <v>4</v>
@@ -19286,10 +18785,8 @@
           <t>4471136849</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:57:02</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44312.70627314815</v>
       </c>
       <c r="I261" t="n">
         <v>4</v>
@@ -19361,10 +18858,8 @@
           <t>4470789753</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:56:48</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44312.70611111111</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19436,10 +18931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:55:41</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44312.70533564815</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19511,10 +19004,8 @@
           <t>4471123883</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:54:47</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44312.70471064815</v>
       </c>
       <c r="I264" t="n">
         <v>6</v>
@@ -19578,10 +19069,8 @@
           <t>4471123006</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:54:07</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44312.70424768519</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19653,10 +19142,8 @@
           <t>4470900622</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:53:56</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44312.70412037037</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19728,10 +19215,8 @@
           <t>4471071952</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:53:17</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44312.70366898148</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19803,10 +19288,8 @@
           <t>4471121889</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:53:17</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44312.70366898148</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19870,10 +19353,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:52:15</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44312.70295138889</v>
       </c>
       <c r="I269" t="n">
         <v>68</v>
@@ -19945,10 +19426,8 @@
           <t>4471118554</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:51:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44312.70253472222</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20020,10 +19499,8 @@
           <t>4471118214</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:51:22</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44312.70233796296</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20091,10 +19568,8 @@
           <t>4471116009</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:49:44</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44312.70120370371</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20166,10 +19641,8 @@
           <t>4471110765</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:49:24</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44312.70097222222</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20241,10 +19714,8 @@
           <t>4471110686</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:49:21</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44312.7009375</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20316,10 +19787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:49:11</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44312.70082175926</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20391,10 +19860,8 @@
           <t>4471098494</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:47:37</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44312.6997337963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20462,10 +19929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:47:29</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44312.6996412037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20529,10 +19994,8 @@
           <t>4471097413</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:46:43</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44312.6991087963</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20600,10 +20063,8 @@
           <t>4471092182</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:45:40</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44312.69837962963</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20675,10 +20136,8 @@
           <t>4471084944</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:44:43</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44312.69771990741</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20742,10 +20201,8 @@
           <t>4471090460</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:44:18</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44312.69743055556</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20813,10 +20270,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:44:09</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44312.69732638889</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20888,10 +20343,8 @@
           <t>4471071952</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:43:17</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44312.69672453704</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20963,10 +20416,8 @@
           <t>4471081628</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:42:05</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44312.6958912037</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21034,10 +20485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:41:05</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44312.69519675926</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21101,10 +20550,8 @@
           <t>4470654727</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:40:23</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44312.69471064815</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21176,10 +20623,8 @@
           <t>4470638699</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:39:56</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44312.69439814815</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21243,10 +20688,8 @@
           <t>4470924734</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:39:54</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44312.694375</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21318,10 +20761,8 @@
           <t>4471068125</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:39:17</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44312.69394675926</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21385,10 +20826,8 @@
           <t>4471067498</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:38:46</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44312.69358796296</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21464,10 +20903,8 @@
           <t>4471071952</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:38:22</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44312.69331018518</v>
       </c>
       <c r="I291" t="n">
         <v>31</v>
@@ -21539,10 +20976,8 @@
           <t>4471071462</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:37:58</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44312.69303240741</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21618,10 +21053,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:37:39</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44312.6928125</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21685,10 +21118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:36:18</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44312.691875</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21752,10 +21183,8 @@
           <t>4470721379</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:35:51</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44312.6915625</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21831,10 +21260,8 @@
           <t>4471048437</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:34:29</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44312.69061342593</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21894,10 +21321,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:33:37</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44312.69001157407</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21961,10 +21386,8 @@
           <t>4470745690</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:33:36</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44312.69</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22040,10 +21463,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:33:06</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44312.68965277778</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22111,10 +21532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:32:15</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44312.6890625</v>
       </c>
       <c r="I300" t="n">
         <v>19</v>
@@ -22182,10 +21601,8 @@
           <t>4471042686</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:30:47</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44312.68804398148</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22249,10 +21666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:28:30</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44312.68645833333</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22328,10 +21743,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:28:21</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44312.68635416667</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22403,10 +21816,8 @@
           <t>4470939184</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:27:26</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44312.68571759259</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22474,10 +21885,8 @@
           <t>4471028588</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:27:23</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44312.68568287037</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22541,10 +21950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:27:03</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44312.68545138889</v>
       </c>
       <c r="I306" t="n">
         <v>15</v>
@@ -22612,10 +22019,8 @@
           <t>4471018563</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:26:09</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44312.68482638889</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22687,10 +22092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:25:56</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44312.68467592593</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22766,10 +22169,8 @@
           <t>4471025020</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:24:24</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44312.68361111111</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22841,10 +22242,8 @@
           <t>4471015082</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:23:08</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44312.68273148148</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22904,10 +22303,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:23:02</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44312.68266203703</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22971,10 +22368,8 @@
           <t>4470854656</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:21:28</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44312.68157407407</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23046,10 +22441,8 @@
           <t>4471006641</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:21:26</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44312.68155092592</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23113,10 +22506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:20:50</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44312.68113425926</v>
       </c>
       <c r="I314" t="n">
         <v>23</v>
@@ -23180,10 +22571,8 @@
           <t>4471001282</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:19:51</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44312.68045138889</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23259,10 +22648,8 @@
           <t>4470996168</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:17:00</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44312.67847222222</v>
       </c>
       <c r="I316" t="n">
         <v>8</v>
@@ -23322,10 +22709,8 @@
           <t>4470991326</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:16:57</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44312.6784375</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23389,10 +22774,8 @@
           <t>4470694059</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:16:56</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44312.67842592593</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23456,10 +22839,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:14:59</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44312.67707175926</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23524,10 +22905,8 @@
           <t>4470638699</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:14:58</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44312.67706018518</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23591,10 +22970,8 @@
           <t>4470978900</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:14:56</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44312.67703703704</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23662,10 +23039,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:14:10</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44312.67650462963</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23737,10 +23112,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:13:01</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44312.67570601852</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23812,10 +23185,8 @@
           <t>4470828991</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:12:55</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44312.67563657407</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23887,10 +23258,8 @@
           <t>4470976151</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:12:35</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44312.6754050926</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23966,10 +23335,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:10:35</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44312.6740162037</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24037,10 +23404,8 @@
           <t>4470968618</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:10:28</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44312.67393518519</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24116,10 +23481,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:09:47</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44312.67346064815</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24191,10 +23554,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:09:16</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44312.67310185185</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24258,10 +23619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:08:56</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44312.67287037037</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24325,10 +23684,8 @@
           <t>4470581613</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:08:51</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44312.6728125</v>
       </c>
       <c r="I331" t="n">
         <v>3</v>
@@ -24396,10 +23753,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:08:32</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44312.67259259259</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24467,10 +23822,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:07:53</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44312.6721412037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24546,10 +23899,8 @@
           <t>4470939184</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:07:48</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44312.67208333333</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24625,10 +23976,8 @@
           <t>4470965179</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:07:31</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44312.67188657408</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24692,10 +24041,8 @@
           <t>4470621554</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:07:18</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44312.67173611111</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24759,10 +24106,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:07:14</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44312.67168981482</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -24822,10 +24167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:07:10</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44312.67164351852</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24889,10 +24232,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:07:01</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44312.67153935185</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24960,10 +24301,8 @@
           <t>4470948408</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:05:47</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44312.67068287037</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25027,10 +24366,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:05:11</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44312.67026620371</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25103,10 +24440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:05:02</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44312.67016203704</v>
       </c>
       <c r="I342" t="n">
         <v>95</v>
@@ -25176,10 +24511,8 @@
           <t>4470600379</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:03:42</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44312.66923611111</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25243,10 +24576,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:02:41</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44312.66853009259</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25323,10 +24654,8 @@
           <t>4470934571</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:02:26</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44312.66835648148</v>
       </c>
       <c r="I345" t="n">
         <v>2</v>
@@ -25394,10 +24723,8 @@
           <t>4470939184</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:02:16</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44312.66824074074</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25465,10 +24792,8 @@
           <t>4470938716</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:01:51</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44312.66795138889</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25544,10 +24869,8 @@
           <t>4470890703</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:01:15</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44312.66753472222</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25607,10 +24930,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:01:07</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44312.66744212963</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25688,10 +25009,8 @@
           <t>4470791602</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:01:03</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44312.66739583333</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25756,10 +25075,8 @@
           <t>4470932980</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:01:01</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44312.66737268519</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -25823,10 +25140,8 @@
           <t>4470936710</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:00:04</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44312.66671296296</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25894,10 +25209,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:59:05</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44312.66603009259</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -25973,10 +25286,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:59:00</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44312.66597222222</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26040,10 +25351,8 @@
           <t>4470924734</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:58:21</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44312.66552083333</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26111,10 +25420,8 @@
           <t>4470890703</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:58:10</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44312.66539351852</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26186,10 +25493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:57:53</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44312.66519675926</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26261,10 +25566,8 @@
           <t>4470925809</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:57:38</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44312.66502314815</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26332,10 +25635,8 @@
           <t>4470923854</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:57:34</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44312.66497685185</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26411,10 +25712,8 @@
           <t>4470917742</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:56:18</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44312.66409722222</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26478,10 +25777,8 @@
           <t>4470921904</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:55:54</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44312.66381944445</v>
       </c>
       <c r="I361" t="n">
         <v>10</v>
@@ -26545,10 +25842,8 @@
           <t>4470913769</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:55:53</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44312.66380787037</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26612,10 +25907,8 @@
           <t>4470890703</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:55:43</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44312.66369212963</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26687,10 +25980,8 @@
           <t>4470921079</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:55:10</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44312.66331018518</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26766,10 +26057,8 @@
           <t>4470920026</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:54:12</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44312.66263888889</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26837,10 +26126,8 @@
           <t>4470910256</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:52:44</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44312.66162037037</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26916,10 +26203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:52:14</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44312.66127314815</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -26991,10 +26276,8 @@
           <t>4470902760</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:51:48</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44312.66097222222</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -27066,10 +26349,8 @@
           <t>4470898699</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:51:23</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44312.66068287037</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27129,10 +26410,8 @@
           <t>4470902223</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:51:18</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44312.660625</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27204,10 +26483,8 @@
           <t>4470890703</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:51:01</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44312.66042824074</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27279,10 +26556,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:50:50</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44312.66030092593</v>
       </c>
       <c r="I372" t="n">
         <v>7</v>
@@ -27354,10 +26629,8 @@
           <t>4470900622</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:49:55</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44312.65966435185</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27425,10 +26698,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:48:52</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44312.65893518519</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27509,10 +26780,8 @@
           <t>4470699347</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:48:21</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44312.65857638889</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27577,10 +26846,8 @@
           <t>4470893203</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:48:09</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44312.6584375</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27656,10 +26923,8 @@
           <t>4470887988</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:47:33</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44312.65802083333</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27735,10 +27000,8 @@
           <t>4470886239</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:45:58</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44312.65692129629</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27806,10 +27069,8 @@
           <t>4470882580</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:45:54</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44312.656875</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27881,10 +27142,8 @@
           <t>4470890703</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:45:52</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44312.65685185185</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -27956,10 +27215,8 @@
           <t>4470638699</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:45:47</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44312.65679398148</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28031,10 +27288,8 @@
           <t>4470885746</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:45:31</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44312.65660879629</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28110,10 +27365,8 @@
           <t>4470649916</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:44:46</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44312.65608796296</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28189,10 +27442,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:42:17</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44312.65436342593</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28256,10 +27507,8 @@
           <t>4470781063</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:41:27</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44312.65378472222</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28335,10 +27584,8 @@
           <t>4470867116</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:41:11</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44312.65359953704</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28405,10 +27652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:41:07</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44312.65355324074</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28484,10 +27729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:41:03</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44312.65350694444</v>
       </c>
       <c r="I388" t="n">
         <v>3</v>
@@ -28563,10 +27806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:39:51</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44312.65267361111</v>
       </c>
       <c r="I389" t="n">
         <v>138</v>
@@ -28642,10 +27883,8 @@
           <t>4470858685</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:39:18</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44312.65229166667</v>
       </c>
       <c r="I390" t="n">
         <v>16</v>
@@ -28721,10 +27960,8 @@
           <t>4470854656</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:38:58</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44312.65206018519</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28792,10 +28029,8 @@
           <t>4470862022</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:38:07</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44312.65146990741</v>
       </c>
       <c r="I392" t="n">
         <v>6</v>
@@ -28863,10 +28098,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:35:54</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44312.64993055556</v>
       </c>
       <c r="I393" t="n">
         <v>5</v>
@@ -28930,10 +28163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:35:20</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44312.64953703704</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29005,10 +28236,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:34:42</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44312.64909722222</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29080,10 +28309,8 @@
           <t>4470776949</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:33:56</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44312.64856481482</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29159,10 +28386,8 @@
           <t>4470828991</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:33:46</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44312.64844907408</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29238,10 +28463,8 @@
           <t>4470838959</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:33:39</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44312.64836805555</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29313,10 +28536,8 @@
           <t>4470828991</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:33:15</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44312.64809027778</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29392,10 +28613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:32:41</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44312.64769675926</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29467,10 +28686,8 @@
           <t>4470840882</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:32:03</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44312.64725694444</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29542,10 +28759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:31:50</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44312.64710648148</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29621,10 +28836,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:31:49</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44312.64709490741</v>
       </c>
       <c r="I403" t="n">
         <v>21</v>
@@ -29688,10 +28901,8 @@
           <t>4470828991</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:30:20</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44312.64606481481</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29763,10 +28974,8 @@
           <t>4470776949</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:30:20</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44312.64606481481</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29830,10 +29039,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:30:19</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44312.64605324074</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29893,10 +29100,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:30:03</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44312.64586805556</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29960,10 +29165,8 @@
           <t>4470793865</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:30:00</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44312.64583333334</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30036,10 +29239,8 @@
           <t>4470832711</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:29:25</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44312.64542824074</v>
       </c>
       <c r="I409" t="n">
         <v>41</v>
@@ -30115,10 +29316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:29:19</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44312.6453587963</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30186,10 +29385,8 @@
           <t>4470827527</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:28:58</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44312.64511574074</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30262,10 +29459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:28:20</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44312.64467592593</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30333,10 +29528,8 @@
           <t>4470821548</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:26:47</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44312.64359953703</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -30400,10 +29593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:26:46</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44312.64358796296</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30475,10 +29666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:26:12</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44312.64319444444</v>
       </c>
       <c r="I415" t="n">
         <v>4</v>
@@ -30551,10 +29740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:25:58</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44312.64303240741</v>
       </c>
       <c r="I416" t="n">
         <v>19</v>
@@ -30626,10 +29813,8 @@
           <t>4470768054</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:24:45</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44312.6421875</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30697,10 +29882,8 @@
           <t>4470794265</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:24:00</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44312.64166666667</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30776,10 +29959,8 @@
           <t>4470808260</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:23:45</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44312.64149305555</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30843,10 +30024,8 @@
           <t>4470807907</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:23:26</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44312.64127314815</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30914,10 +30093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:22:58</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44312.64094907408</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30985,10 +30162,8 @@
           <t>4470791602</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:22:32</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44312.64064814815</v>
       </c>
       <c r="I422" t="n">
         <v>15</v>
@@ -31052,10 +30227,8 @@
           <t>4470763306</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:22:27</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44312.64059027778</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31127,10 +30300,8 @@
           <t>4470699347</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:22:10</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44312.64039351852</v>
       </c>
       <c r="I424" t="n">
         <v>2</v>
@@ -31194,10 +30365,8 @@
           <t>4470763306</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:22:02</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44312.64030092592</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31273,10 +30442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:21:52</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44312.64018518518</v>
       </c>
       <c r="I426" t="n">
         <v>15</v>
@@ -31348,10 +30515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:21:45</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44312.64010416667</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31423,10 +30588,8 @@
           <t>4470763306</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:21:06</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44312.63965277778</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31499,10 +30662,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:20:51</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44312.63947916667</v>
       </c>
       <c r="I429" t="n">
         <v>31</v>
@@ -31574,10 +30735,8 @@
           <t>4470795120</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:20:36</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44312.63930555555</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31653,10 +30812,8 @@
           <t>4470802817</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:20:23</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44312.63915509259</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31724,10 +30881,8 @@
           <t>4470797993</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:20:12</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44312.63902777778</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31791,10 +30946,8 @@
           <t>4470768054</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:20:11</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44312.63901620371</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -31866,10 +31019,8 @@
           <t>4470763306</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:20:11</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44312.63901620371</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31945,10 +31096,8 @@
           <t>4470794265</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:20:04</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44312.63893518518</v>
       </c>
       <c r="I435" t="n">
         <v>2</v>
@@ -32020,10 +31169,8 @@
           <t>4470793865</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:19:42</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44312.63868055555</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32087,10 +31234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:19:27</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44312.63850694444</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32154,10 +31299,8 @@
           <t>4470763306</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:19:00</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44312.63819444444</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32229,10 +31372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:18:50</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44312.63807870371</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32300,10 +31441,8 @@
           <t>4470800618</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:18:23</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44312.6377662037</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32376,10 +31515,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:17:42</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44312.63729166667</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32447,10 +31584,8 @@
           <t>4470791602</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:17:39</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44312.63725694444</v>
       </c>
       <c r="I442" t="n">
         <v>13</v>
@@ -32514,10 +31649,8 @@
           <t>4470795120</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:17:36</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44312.63722222222</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32587,10 +31720,8 @@
           <t>4470789753</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:17:36</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44312.63722222222</v>
       </c>
       <c r="I444" t="n">
         <v>11</v>
@@ -32666,10 +31797,8 @@
           <t>4470768054</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:17:26</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44312.63710648148</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32737,10 +31866,8 @@
           <t>4470784746</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:17:14</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44312.6369675926</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32808,10 +31935,8 @@
           <t>4470779143</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:15:23</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44312.63568287037</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32879,10 +32004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:15:04</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44312.63546296296</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32950,10 +32073,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:15:04</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44312.63546296296</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33022,10 +32143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:14:54</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44312.63534722223</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33097,10 +32216,8 @@
           <t>4470778293</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:14:36</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44312.63513888889</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33168,10 +32285,8 @@
           <t>4470778095</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:14:26</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44312.63502314815</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33239,10 +32354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:14:13</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44312.63487268519</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
@@ -33306,10 +32419,8 @@
           <t>4470785758</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:13:51</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44312.63461805556</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33377,10 +32488,8 @@
           <t>4470781063</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:13:49</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44312.63459490741</v>
       </c>
       <c r="I455" t="n">
         <v>10</v>
@@ -33448,10 +32557,8 @@
           <t>4470556863</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:13:37</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44312.63445601852</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33519,10 +32626,8 @@
           <t>4470785390</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:13:29</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44312.63436342592</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33586,10 +32691,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:13:23</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44312.63429398148</v>
       </c>
       <c r="I458" t="n">
         <v>7</v>
@@ -33653,10 +32756,8 @@
           <t>4470776949</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:13:20</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44312.63425925926</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33732,10 +32833,8 @@
           <t>4470769987</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:12:46</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44312.63386574074</v>
       </c>
       <c r="I460" t="n">
         <v>13</v>
@@ -33803,10 +32902,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:12:20</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44312.63356481482</v>
       </c>
       <c r="I461" t="n">
         <v>17</v>
@@ -33870,10 +32967,8 @@
           <t>4470768054</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:12:03</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44312.63336805555</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33941,10 +33036,8 @@
           <t>4470768959</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:11:46</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44312.63317129629</v>
       </c>
       <c r="I463" t="n">
         <v>7</v>
@@ -34008,10 +33101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:11:41</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44312.63311342592</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34079,10 +33170,8 @@
           <t>4470763306</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:11:30</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44312.63298611111</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34158,10 +33247,8 @@
           <t>4470764959</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:11:27</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44312.63295138889</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34229,10 +33316,8 @@
           <t>4470768533</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:11:22</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44312.63289351852</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34305,10 +33390,8 @@
           <t>4470768300</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:11:07</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44312.63271990741</v>
       </c>
       <c r="I468" t="n">
         <v>93</v>
@@ -34373,10 +33456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:11:03</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44312.63267361111</v>
       </c>
       <c r="I469" t="n">
         <v>407</v>
@@ -34444,10 +33525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:10:59</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44312.63262731482</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34525,10 +33604,8 @@
           <t>4470768054</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:10:53</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44312.63255787037</v>
       </c>
       <c r="I471" t="n">
         <v>2</v>
@@ -34600,10 +33677,8 @@
           <t>4470764126</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:10:39</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44312.63239583333</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34676,10 +33751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:10:26</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44312.63224537037</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34743,10 +33816,8 @@
           <t>4470763306</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:09:52</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44312.63185185185</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34818,10 +33889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:09:49</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44312.63181712963</v>
       </c>
       <c r="I475" t="n">
         <v>15</v>
@@ -34893,10 +33962,8 @@
           <t>4470765924</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:08:55</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44312.63119212963</v>
       </c>
       <c r="I476" t="n">
         <v>17</v>
@@ -34960,10 +34027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:08:46</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44312.63108796296</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35027,10 +34092,8 @@
           <t>4470638699</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:08:13</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44312.63070601852</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35106,10 +34169,8 @@
           <t>4470636689</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:08:10</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44312.6306712963</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35181,10 +34242,8 @@
           <t>4470692955</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:07:28</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44312.63018518518</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35252,10 +34311,8 @@
           <t>4470754319</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:07:28</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44312.63018518518</v>
       </c>
       <c r="I481" t="n">
         <v>4</v>
@@ -35331,10 +34388,8 @@
           <t>4470758740</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:07:09</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44312.62996527777</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35406,10 +34461,8 @@
           <t>4470758438</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:06:52</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44312.62976851852</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35477,10 +34530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:05:08</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44312.62856481481</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35548,10 +34599,8 @@
           <t>4470638699</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:04:41</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44312.62825231482</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35623,10 +34672,8 @@
           <t>4470746865</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:03:47</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44312.62762731482</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35694,10 +34741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:03:15</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44312.62725694444</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35761,10 +34806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:02:49</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44312.62695601852</v>
       </c>
       <c r="I488" t="n">
         <v>7</v>
@@ -35840,10 +34883,8 @@
           <t>4470745690</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:02:37</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44312.62681712963</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -35919,10 +34960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:01:37</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44312.62612268519</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35990,10 +35029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:01:30</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44312.62604166667</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36071,10 +35108,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:00:47</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44312.62554398148</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -36146,10 +35181,8 @@
           <t>4470733658</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-04-26 15:00:44</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44312.62550925926</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36225,10 +35258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:59:42</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44312.62479166667</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36300,10 +35331,8 @@
           <t>4470729734</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:59:02</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44312.62432870371</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36379,10 +35408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:58:59</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44312.62429398148</v>
       </c>
       <c r="I496" t="n">
         <v>4</v>
@@ -36450,10 +35477,8 @@
           <t>4470729734</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:58:49</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44312.62417824074</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36521,10 +35546,8 @@
           <t>4470649916</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:58:43</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44312.6241087963</v>
       </c>
       <c r="I498" t="n">
         <v>3</v>
@@ -36596,10 +35619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:58:22</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44312.62386574074</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36675,10 +35696,8 @@
           <t>4470724558</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:58:16</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44312.6237962963</v>
       </c>
       <c r="I500" t="n">
         <v>4</v>
@@ -36750,10 +35769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:57:24</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44312.62319444444</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36821,10 +35838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:57:09</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44312.62302083334</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36896,10 +35911,8 @@
           <t>4470621554</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:57:04</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44312.62296296296</v>
       </c>
       <c r="I503" t="n">
         <v>4</v>
@@ -36959,10 +35972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:56:55</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44312.6228587963</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37030,10 +36041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:56:47</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44312.62276620371</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37101,10 +36110,8 @@
           <t>4470722960</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:56:45</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44312.62274305556</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37180,10 +36187,8 @@
           <t>4470727348</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:56:36</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44312.62263888889</v>
       </c>
       <c r="I507" t="n">
         <v>4</v>
@@ -37251,10 +36256,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:55:48</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44312.62208333334</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37326,10 +36329,8 @@
           <t>4470721379</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:55:16</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44312.62171296297</v>
       </c>
       <c r="I509" t="n">
         <v>46</v>
@@ -37405,10 +36406,8 @@
           <t>4470585035</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:54:19</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44312.62105324074</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37483,10 +36482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:53:39</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44312.62059027778</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37562,10 +36559,8 @@
           <t>4470715006</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:52:39</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44312.61989583333</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37641,10 +36636,8 @@
           <t>4470704861</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:52:31</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44312.61980324074</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37716,10 +36709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:52:15</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44312.61961805556</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37791,10 +36782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:52:13</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44312.61959490741</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37859,10 +36848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:52:02</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44312.61946759259</v>
       </c>
       <c r="I516" t="n">
         <v>56</v>
@@ -37938,10 +36925,8 @@
           <t>4470707750</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:51:56</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44312.61939814815</v>
       </c>
       <c r="I517" t="n">
         <v>9</v>
@@ -38018,10 +37003,8 @@
           <t>4470712242</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:51:55</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44312.61938657407</v>
       </c>
       <c r="I518" t="n">
         <v>8</v>
@@ -38093,10 +37076,8 @@
           <t>4470656424</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:51:41</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44312.61922453704</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38172,10 +37153,8 @@
           <t>4470649916</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:51:38</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44312.61918981482</v>
       </c>
       <c r="I520" t="n">
         <v>7</v>
@@ -38251,10 +37230,8 @@
           <t>4470707406</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:51:37</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44312.61917824074</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38323,10 +37300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:51:17</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44312.61894675926</v>
       </c>
       <c r="I522" t="n">
         <v>3</v>
@@ -38394,10 +37369,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:51:03</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44312.61878472222</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38461,10 +37434,8 @@
           <t>4470711107</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:50:50</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44312.61863425926</v>
       </c>
       <c r="I524" t="n">
         <v>14</v>
@@ -38535,10 +37506,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:50:36</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44312.61847222222</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38610,10 +37579,8 @@
           <t>4470695767</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:49:43</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44312.61785879629</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38689,10 +37656,8 @@
           <t>4470705155</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:49:32</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44312.61773148148</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38764,10 +37729,8 @@
           <t>4470694615</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:49:02</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44312.61738425926</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38833,10 +37796,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:48:46</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44312.61719907408</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -38908,10 +37869,8 @@
           <t>4470694059</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:48:30</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44312.61701388889</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38983,10 +37942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:47:48</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44312.61652777778</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39054,10 +38011,8 @@
           <t>4470656424</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:47:36</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44312.61638888889</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39129,10 +38084,8 @@
           <t>4470689568</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:47:32</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44312.61634259259</v>
       </c>
       <c r="I533" t="n">
         <v>2</v>
@@ -39208,10 +38161,8 @@
           <t>4470692955</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:47:28</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44312.6162962963</v>
       </c>
       <c r="I534" t="n">
         <v>9</v>
@@ -39287,10 +38238,8 @@
           <t>4470696648</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:46:40</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44312.61574074074</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39354,10 +38303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:46:29</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44312.61561342593</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39425,10 +38372,8 @@
           <t>4470696241</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:46:19</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44312.61549768518</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39500,10 +38445,8 @@
           <t>4470568765</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:45:58</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44312.61525462963</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39567,10 +38510,8 @@
           <t>4470695767</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:45:52</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44312.61518518518</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39643,10 +38584,8 @@
           <t>4470690341</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:45:01</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44312.61459490741</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39710,10 +38649,8 @@
           <t>4470667587</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:44:49</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44312.61445601852</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39792,10 +38729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:44:02</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44312.61391203704</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39863,10 +38798,8 @@
           <t>4470574691</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:44:00</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44312.61388888889</v>
       </c>
       <c r="I543" t="n">
         <v>14</v>
@@ -39938,10 +38871,8 @@
           <t>4470685481</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:43:40</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44312.6136574074</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40019,10 +38950,8 @@
           <t>4470662788</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:43:35</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44312.61359953704</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -40086,10 +39015,8 @@
           <t>4470685150</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:43:21</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44312.6134375</v>
       </c>
       <c r="I546" t="n">
         <v>10</v>
@@ -40157,10 +39084,8 @@
           <t>4470685138</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:43:20</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44312.61342592593</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40232,10 +39157,8 @@
           <t>4470678291</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:43:01</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44312.61320601852</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40307,10 +39230,8 @@
           <t>4470677406</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:42:10</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44312.61261574074</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40386,10 +39307,8 @@
           <t>4470681631</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:42:00</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44312.6125</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40465,10 +39384,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:41:52</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44312.61240740741</v>
       </c>
       <c r="I551" t="n">
         <v>4</v>
@@ -40540,10 +39457,8 @@
           <t>4470673472</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:41:43</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44312.61230324074</v>
       </c>
       <c r="I552" t="n">
         <v>2</v>
@@ -40619,10 +39534,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:41:16</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44312.61199074074</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40694,10 +39607,8 @@
           <t>4470556863</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:40:43</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44312.61160879629</v>
       </c>
       <c r="I554" t="n">
         <v>2</v>
@@ -40773,10 +39684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:39:57</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44312.61107638889</v>
       </c>
       <c r="I555" t="n">
         <v>7</v>
@@ -40852,10 +39761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:39:29</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44312.61075231482</v>
       </c>
       <c r="I556" t="n">
         <v>2</v>
@@ -40924,10 +39831,8 @@
           <t>4470670504</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:56</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44312.61037037037</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41003,10 +39908,8 @@
           <t>4470667587</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:50</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44312.61030092592</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41077,10 +39980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:46</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44312.61025462963</v>
       </c>
       <c r="I559" t="n">
         <v>464</v>
@@ -41148,10 +40049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:28</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44312.61004629629</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41219,10 +40118,8 @@
           <t>4470659977</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:26</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44312.61002314815</v>
       </c>
       <c r="I561" t="n">
         <v>7</v>
@@ -41286,10 +40183,8 @@
           <t>4470663204</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:11</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44312.60984953704</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41361,10 +40256,8 @@
           <t>4470667587</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:10</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44312.60983796296</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41440,10 +40333,8 @@
           <t>4470667465</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:04</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44312.60976851852</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41507,10 +40398,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:38:02</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44312.60974537037</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41586,10 +40475,8 @@
           <t>4470662936</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:37:56</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44312.60967592592</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41665,10 +40552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:37:52</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44312.60962962963</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41728,10 +40613,8 @@
           <t>4470667249</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:37:51</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44312.60961805555</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41803,10 +40686,8 @@
           <t>4470659354</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:37:51</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44312.60961805555</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -41870,10 +40751,8 @@
           <t>4470662788</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:37:48</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44312.60958333333</v>
       </c>
       <c r="I570" t="n">
         <v>8</v>
@@ -41945,10 +40824,8 @@
           <t>4470667184</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:37:47</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44312.60957175926</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42024,10 +40901,8 @@
           <t>4470649916</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:37:26</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44312.6093287037</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42103,10 +40978,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:36:59</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44312.60901620371</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42166,10 +41039,8 @@
           <t>4470658267</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:36:50</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44312.60891203704</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42245,10 +41116,8 @@
           <t>4470581613</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:36:49</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44312.60890046296</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42324,10 +41193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:36:47</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44312.60887731481</v>
       </c>
       <c r="I576" t="n">
         <v>16</v>
@@ -42395,10 +41262,8 @@
           <t>4470621554</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:36:35</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44312.60873842592</v>
       </c>
       <c r="I577" t="n">
         <v>31</v>
@@ -42458,10 +41323,8 @@
           <t>4470657947</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:36:31</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44312.60869212963</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42525,10 +41388,8 @@
           <t>4470654727</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:35:30</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44312.60798611111</v>
       </c>
       <c r="I579" t="n">
         <v>55</v>
@@ -42605,10 +41466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:35:22</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44312.60789351852</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -42684,10 +41543,8 @@
           <t>4470660075</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:35:15</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44312.6078125</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42759,10 +41616,8 @@
           <t>4470649916</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:35:07</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44312.60771990741</v>
       </c>
       <c r="I582" t="n">
         <v>13</v>
@@ -42834,10 +41689,8 @@
           <t>4470656424</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:35:04</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44312.60768518518</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42913,10 +41766,8 @@
           <t>4470649248</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:34:29</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44312.60728009259</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42980,10 +41831,8 @@
           <t>4470648095</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:33:24</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44312.60652777777</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43051,10 +41900,8 @@
           <t>4470644647</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:33:24</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44312.60652777777</v>
       </c>
       <c r="I586" t="n">
         <v>4</v>
@@ -43130,10 +41977,8 @@
           <t>4470581613</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:33:23</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44312.6065162037</v>
       </c>
       <c r="I587" t="n">
         <v>2</v>
@@ -43197,10 +42042,8 @@
           <t>4470652435</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:33:18</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44312.60645833334</v>
       </c>
       <c r="I588" t="n">
         <v>3</v>
@@ -43272,10 +42115,8 @@
           <t>4470651021</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:31:58</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44312.6055324074</v>
       </c>
       <c r="I589" t="n">
         <v>3</v>
@@ -43347,10 +42188,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:31:40</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44312.60532407407</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43422,10 +42261,8 @@
           <t>4470556863</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:31:27</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44312.60517361111</v>
       </c>
       <c r="I591" t="n">
         <v>6</v>
@@ -43501,10 +42338,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:30:48</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44312.60472222222</v>
       </c>
       <c r="I592" t="n">
         <v>2</v>
@@ -43576,10 +42411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:30:27</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44312.60447916666</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43643,10 +42476,8 @@
           <t>4470581613</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:30:26</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44312.6044675926</v>
       </c>
       <c r="I594" t="n">
         <v>17</v>
@@ -43710,10 +42541,8 @@
           <t>4470639204</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:30:20</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44312.60439814815</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43781,10 +42610,8 @@
           <t>4470639130</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:30:17</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44312.60436342593</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -43852,10 +42679,8 @@
           <t>4470638699</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:29:52</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44312.60407407407</v>
       </c>
       <c r="I597" t="n">
         <v>12</v>
@@ -43924,10 +42749,8 @@
           <t>4470638674</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:29:51</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44312.6040625</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -43999,10 +42822,8 @@
           <t>4470636537</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:29:29</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44312.60380787037</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44070,10 +42891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:29:04</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44312.60351851852</v>
       </c>
       <c r="I600" t="n">
         <v>7</v>
@@ -44141,10 +42960,8 @@
           <t>4470629850</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:29:00</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44312.60347222222</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44208,10 +43025,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:39</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44312.60322916666</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44279,10 +43094,8 @@
           <t>4470632836</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:32</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44312.60314814815</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44346,10 +43159,8 @@
           <t>4470585035</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:32</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44312.60314814815</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44413,10 +43224,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:31</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44312.60313657407</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44484,10 +43293,8 @@
           <t>4470632625</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:20</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44312.60300925926</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44559,10 +43366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:16</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44312.60296296296</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44634,10 +43439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:11</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44312.60290509259</v>
       </c>
       <c r="I608" t="n">
         <v>1053</v>
@@ -44701,10 +43504,8 @@
           <t>4470632312</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:01</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44312.60278935185</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44764,10 +43565,8 @@
           <t>4470636689</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:28:00</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44312.60277777778</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44839,10 +43638,8 @@
           <t>4470636537</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:27:51</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44312.60267361111</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44914,10 +43711,8 @@
           <t>4470631998</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:27:43</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44312.60258101852</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44981,10 +43776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:26:26</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44312.60168981482</v>
       </c>
       <c r="I613" t="n">
         <v>848</v>
@@ -45056,10 +43849,8 @@
           <t>4470630455</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:26:17</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44312.60158564815</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45135,10 +43926,8 @@
           <t>4470626687</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:26:08</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44312.60148148148</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45206,10 +43995,8 @@
           <t>4470600379</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:24:36</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44312.60041666667</v>
       </c>
       <c r="I616" t="n">
         <v>8</v>
@@ -45273,10 +44060,8 @@
           <t>4470622269</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:23:54</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44312.59993055555</v>
       </c>
       <c r="I617" t="n">
         <v>47</v>
@@ -45340,10 +44125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:23:51</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44312.59989583334</v>
       </c>
       <c r="I618" t="n">
         <v>3</v>
@@ -45407,10 +44190,8 @@
           <t>4470621554</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:23:11</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44312.59943287037</v>
       </c>
       <c r="I619" t="n">
         <v>106</v>
@@ -45474,10 +44255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:23:01</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44312.59931712963</v>
       </c>
       <c r="I620" t="n">
         <v>66</v>
@@ -45546,10 +44325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:22:28</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44312.59893518518</v>
       </c>
       <c r="I621" t="n">
         <v>57</v>
@@ -45620,10 +44397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:21:48</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44312.59847222222</v>
       </c>
       <c r="I622" t="n">
         <v>18</v>
@@ -45691,10 +44466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:20:52</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44312.59782407407</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45766,10 +44539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:20:47</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44312.5977662037</v>
       </c>
       <c r="I624" t="n">
         <v>1</v>
@@ -45841,10 +44612,8 @@
           <t>4470604155</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:20:25</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44312.59751157407</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45920,10 +44689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:19:39</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44312.59697916666</v>
       </c>
       <c r="I626" t="n">
         <v>25</v>
@@ -45991,10 +44758,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:19:12</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44312.59666666666</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46070,10 +44835,8 @@
           <t>4470602600</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:19:00</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44312.59652777778</v>
       </c>
       <c r="I628" t="n">
         <v>4</v>
@@ -46137,10 +44900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:18:39</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44312.59628472223</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46212,10 +44973,8 @@
           <t>4470556863</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:18:24</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44312.59611111111</v>
       </c>
       <c r="I630" t="n">
         <v>2</v>
@@ -46279,10 +45038,8 @@
           <t>4470601282</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:17:51</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44312.59572916666</v>
       </c>
       <c r="I631" t="n">
         <v>8</v>
@@ -46351,10 +45108,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:17:39</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44312.59559027778</v>
       </c>
       <c r="I632" t="n">
         <v>16</v>
@@ -46426,10 +45181,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:17:39</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44312.59559027778</v>
       </c>
       <c r="I633" t="n">
         <v>5</v>
@@ -46501,10 +45254,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:17:33</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44312.59552083333</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
@@ -46564,10 +45315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:17:11</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44312.5952662037</v>
       </c>
       <c r="I635" t="n">
         <v>113</v>
@@ -46643,10 +45392,8 @@
           <t>4470556863</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:17:09</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44312.59524305556</v>
       </c>
       <c r="I636" t="n">
         <v>4</v>
@@ -46710,10 +45457,8 @@
           <t>4470600379</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:17:01</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44312.59515046296</v>
       </c>
       <c r="I637" t="n">
         <v>9</v>
@@ -46777,10 +45522,8 @@
           <t>4470600316</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:16:57</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44312.59510416666</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46844,10 +45587,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:16:41</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44312.59491898148</v>
       </c>
       <c r="I639" t="n">
         <v>5</v>
@@ -46915,10 +45656,8 @@
           <t>4470583829</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:16:32</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44312.59481481482</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -46990,10 +45729,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:16:24</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44312.59472222222</v>
       </c>
       <c r="I641" t="n">
         <v>8</v>
@@ -47061,10 +45798,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:16:05</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44312.59450231482</v>
       </c>
       <c r="I642" t="n">
         <v>10</v>
@@ -47136,10 +45871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:16:03</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44312.59447916667</v>
       </c>
       <c r="I643" t="n">
         <v>20</v>
@@ -47211,10 +45944,8 @@
           <t>4470595457</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:49</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44312.59431712963</v>
       </c>
       <c r="I644" t="n">
         <v>16</v>
@@ -47282,10 +46013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:46</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44312.59428240741</v>
       </c>
       <c r="I645" t="n">
         <v>1</v>
@@ -47353,10 +46082,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:45</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44312.59427083333</v>
       </c>
       <c r="I646" t="n">
         <v>11</v>
@@ -47420,10 +46147,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:28</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44312.59407407408</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47491,10 +46216,8 @@
           <t>4470564619</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:17</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44312.59394675926</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47554,10 +46277,8 @@
           <t>4470581613</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:14</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44312.59391203704</v>
       </c>
       <c r="I649" t="n">
         <v>14</v>
@@ -47629,10 +46350,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:12</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44312.59388888889</v>
       </c>
       <c r="I650" t="n">
         <v>26</v>
@@ -47700,10 +46419,8 @@
           <t>4470587878</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:15:03</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44312.59378472222</v>
       </c>
       <c r="I651" t="n">
         <v>13</v>
@@ -47768,10 +46485,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:14:52</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44312.59365740741</v>
       </c>
       <c r="I652" t="n">
         <v>3</v>
@@ -47840,10 +46555,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:14:46</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44312.59358796296</v>
       </c>
       <c r="I653" t="n">
         <v>15</v>
@@ -47907,10 +46620,8 @@
           <t>4470581613</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:14:41</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44312.59353009259</v>
       </c>
       <c r="I654" t="n">
         <v>6</v>
@@ -47983,10 +46694,8 @@
           <t>4470591904</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:14:24</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44312.59333333333</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48054,10 +46763,8 @@
           <t>4470583829</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:14:20</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44312.59328703704</v>
       </c>
       <c r="I656" t="n">
         <v>3</v>
@@ -48117,10 +46824,8 @@
           <t>4470587316</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:14:12</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44312.59319444445</v>
       </c>
       <c r="I657" t="n">
         <v>5</v>
@@ -48196,10 +46901,8 @@
           <t>4470581613</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:13:47</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44312.59290509259</v>
       </c>
       <c r="I658" t="n">
         <v>19</v>
@@ -48271,10 +46974,8 @@
           <t>4470568765</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:13:01</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44312.59237268518</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48338,10 +47039,8 @@
           <t>4470590136</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:51</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44312.59225694444</v>
       </c>
       <c r="I660" t="n">
         <v>2</v>
@@ -48409,10 +47108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:39</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44312.59211805555</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48476,10 +47173,8 @@
           <t>4470581960</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:35</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44312.59207175926</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48555,10 +47250,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:33</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44312.59204861111</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -48618,10 +47311,8 @@
           <t>4470581917</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:33</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44312.59204861111</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -48693,10 +47384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:31</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44312.59202546296</v>
       </c>
       <c r="I665" t="n">
         <v>3</v>
@@ -48772,10 +47461,8 @@
           <t>4470585438</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:29</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44312.59200231481</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -48843,10 +47530,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:19</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44312.59188657408</v>
       </c>
       <c r="I667" t="n">
         <v>1</v>
@@ -48918,10 +47603,8 @@
           <t>4470585035</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:07</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44312.59174768518</v>
       </c>
       <c r="I668" t="n">
         <v>14</v>
@@ -48989,10 +47672,8 @@
           <t>4470556863</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:12:03</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44312.59170138889</v>
       </c>
       <c r="I669" t="n">
         <v>5</v>
@@ -49064,10 +47745,8 @@
           <t>4470574691</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:11:50</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44312.59155092593</v>
       </c>
       <c r="I670" t="n">
         <v>9</v>
@@ -49140,10 +47819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:11:19</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44312.59119212963</v>
       </c>
       <c r="I671" t="n">
         <v>3</v>
@@ -49211,10 +47888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:11:06</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44312.59104166667</v>
       </c>
       <c r="I672" t="n">
         <v>14</v>
@@ -49290,10 +47965,8 @@
           <t>4470567811</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:10:51</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44312.59086805556</v>
       </c>
       <c r="I673" t="n">
         <v>3</v>
@@ -49369,10 +48042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:10:49</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44312.5908449074</v>
       </c>
       <c r="I674" t="n">
         <v>1</v>
@@ -49440,10 +48111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:10:47</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44312.59082175926</v>
       </c>
       <c r="I675" t="n">
         <v>4</v>
@@ -49515,10 +48184,8 @@
           <t>4470569332</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:10:13</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44312.59042824074</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49582,10 +48249,8 @@
           <t>4470568765</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:10:10</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44312.59039351852</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49650,10 +48315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:10:07</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44312.5903587963</v>
       </c>
       <c r="I678" t="n">
         <v>1577</v>
@@ -49729,10 +48392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:09:48</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44312.59013888889</v>
       </c>
       <c r="I679" t="n">
         <v>4</v>
@@ -49796,10 +48457,8 @@
           <t>4470568765</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:09:45</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44312.59010416667</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -49863,10 +48522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:09:40</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44312.5900462963</v>
       </c>
       <c r="I681" t="n">
         <v>9</v>
@@ -49930,10 +48587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:09:36</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44312.59</v>
       </c>
       <c r="I682" t="n">
         <v>2</v>
@@ -50012,10 +48667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:09:26</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44312.58988425926</v>
       </c>
       <c r="I683" t="n">
         <v>599</v>
@@ -50079,10 +48732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:09:04</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44312.58962962963</v>
       </c>
       <c r="I684" t="n">
         <v>5</v>
@@ -50146,10 +48797,8 @@
           <t>4470567811</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:08:55</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44312.58952546296</v>
       </c>
       <c r="I685" t="n">
         <v>18</v>
@@ -50217,10 +48866,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:08:54</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44312.58951388889</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50280,10 +48927,8 @@
           <t>4470575646</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:08:46</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44312.5894212963</v>
       </c>
       <c r="I687" t="n">
         <v>2</v>
@@ -50355,10 +49000,8 @@
           <t>4470571114</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:08:38</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44312.5893287037</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50434,10 +49077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:08:35</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44312.58929398148</v>
       </c>
       <c r="I689" t="n">
         <v>4</v>
@@ -50505,10 +49146,8 @@
           <t>4470564619</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:08:26</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44312.58918981482</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -50572,10 +49211,8 @@
           <t>4470564619</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:07:49</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44312.58876157407</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -50637,10 +49274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:07:20</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44312.58842592593</v>
       </c>
       <c r="I692" t="n">
         <v>1</v>
@@ -50708,10 +49343,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:07:04</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44312.58824074074</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
@@ -50783,10 +49416,8 @@
           <t>4470559187</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:06:58</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44312.58817129629</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -50854,10 +49485,8 @@
           <t>4470563191</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:06:34</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44312.58789351852</v>
       </c>
       <c r="I695" t="n">
         <v>21</v>
@@ -50933,10 +49562,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:06:32</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44312.58787037037</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -51000,10 +49627,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:06:15</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44312.58767361111</v>
       </c>
       <c r="I697" t="n">
         <v>2</v>
@@ -51077,10 +49702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:06:12</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44312.58763888889</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -51148,10 +49771,8 @@
           <t>4470558094</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:06:02</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44312.58752314815</v>
       </c>
       <c r="I699" t="n">
         <v>159</v>
@@ -51223,10 +49844,8 @@
           <t>4470562340</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:05:51</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44312.58739583333</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51290,10 +49909,8 @@
           <t>4470557499</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:05:30</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44312.58715277778</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51365,10 +49982,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:05:29</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44312.5871412037</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51444,10 +50059,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:05:04</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44312.58685185185</v>
       </c>
       <c r="I703" t="n">
         <v>27</v>
@@ -51522,10 +50135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:05:02</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44312.5868287037</v>
       </c>
       <c r="I704" t="n">
         <v>470</v>
@@ -51597,10 +50208,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:05:02</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44312.5868287037</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -51668,10 +50277,8 @@
           <t>4470556737</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:48</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44312.58666666667</v>
       </c>
       <c r="I706" t="n">
         <v>174</v>
@@ -51747,10 +50354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:25</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44312.58640046296</v>
       </c>
       <c r="I707" t="n">
         <v>7</v>
@@ -51826,10 +50431,8 @@
           <t>4470560573</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:19</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44312.58633101852</v>
       </c>
       <c r="I708" t="n">
         <v>34</v>
@@ -51905,10 +50508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:17</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44312.58630787037</v>
       </c>
       <c r="I709" t="n">
         <v>1</v>
@@ -51976,10 +50577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:15</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44312.58628472222</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -52043,10 +50642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:08</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44312.5862037037</v>
       </c>
       <c r="I711" t="n">
         <v>248</v>
@@ -52118,10 +50715,8 @@
           <t>4470555901</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:06</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44312.58618055555</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52190,10 +50785,8 @@
           <t>4470552291</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:04:03</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44312.58614583333</v>
       </c>
       <c r="I713" t="n">
         <v>19</v>
@@ -52265,10 +50858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:03:43</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44312.58591435185</v>
       </c>
       <c r="I714" t="n">
         <v>510</v>
@@ -52340,10 +50931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:03:30</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44312.58576388889</v>
       </c>
       <c r="I715" t="n">
         <v>4</v>
@@ -52415,10 +51004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:03:21</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44312.58565972222</v>
       </c>
       <c r="I716" t="n">
         <v>40</v>
@@ -52482,10 +51069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:03:09</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44312.58552083333</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -52553,10 +51138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:03:07</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44312.58549768518</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52632,10 +51215,8 @@
           <t>4470549102</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:03:07</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44312.58549768518</v>
       </c>
       <c r="I719" t="n">
         <v>2</v>
@@ -52707,10 +51288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:02:50</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44312.58530092592</v>
       </c>
       <c r="I720" t="n">
         <v>1</v>
@@ -52781,10 +51360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:02:50</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44312.58530092592</v>
       </c>
       <c r="I721" t="n">
         <v>20</v>
@@ -52852,10 +51429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:02:50</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44312.58530092592</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
@@ -52923,10 +51498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:02:35</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44312.58512731481</v>
       </c>
       <c r="I723" t="n">
         <v>82</v>
@@ -53002,10 +51575,8 @@
           <t>4470548416</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:02:31</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44312.58508101852</v>
       </c>
       <c r="I724" t="n">
         <v>42</v>
@@ -53065,10 +51636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:02:20</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44312.58495370371</v>
       </c>
       <c r="I725" t="n">
         <v>55</v>
@@ -53136,10 +51705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:01:47</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44312.58457175926</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
@@ -53211,10 +51778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:01:30</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44312.584375</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -53278,10 +51843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:01:20</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44312.58425925926</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
@@ -53349,10 +51912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:01:20</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44312.58425925926</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53420,10 +51981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:01:16</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44312.58421296296</v>
       </c>
       <c r="I730" t="n">
         <v>477</v>
@@ -53487,10 +52046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:01:05</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44312.58408564814</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -53554,10 +52111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:00:53</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44312.58394675926</v>
       </c>
       <c r="I732" t="n">
         <v>3054</v>
@@ -53633,10 +52188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-04-26 14:00:47</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44312.58387731481</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
